--- a/thesis/matlab-optimization/mass_components_fix.xlsx
+++ b/thesis/matlab-optimization/mass_components_fix.xlsx
@@ -114,7 +114,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -454,16 +454,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15798</c:v>
+                  <c:v>18318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17412</c:v>
+                  <c:v>17126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10838</c:v>
+                  <c:v>10765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70463</c:v>
+                  <c:v>72986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,7 +569,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="tr-TR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -842,16 +842,16 @@
                 <c:formatCode>[$$-409]#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>47395</c:v>
+                  <c:v>54956</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174128</c:v>
+                  <c:v>171260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>867071</c:v>
+                  <c:v>861231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211391</c:v>
+                  <c:v>218958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2140,7 +2140,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2432,14 +2432,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2450,79 +2450,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>15798</v>
+        <v>18318</v>
       </c>
       <c r="C5" s="2">
-        <v>47395</v>
+        <v>54956</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>17412</v>
+        <v>17126</v>
       </c>
       <c r="C6" s="2">
-        <v>174128</v>
+        <v>171260</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>10838</v>
+        <v>10765</v>
       </c>
       <c r="C7" s="2">
-        <v>867071</v>
+        <v>861231</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>70463</v>
+        <v>72986</v>
       </c>
       <c r="C8" s="2">
-        <v>211391</v>
+        <v>218958</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
         <f>SUM(B5:B8)</f>
-        <v>114511</v>
+        <v>119195</v>
       </c>
       <c r="C9">
         <f>SUM(C5:C8)*1.2</f>
-        <v>1559982</v>
+        <v>1567686</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2552,7 +2552,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis/matlab-optimization/mass_components_fix.xlsx
+++ b/thesis/matlab-optimization/mass_components_fix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Component</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Structural steel</t>
+  </si>
+  <si>
+    <t>KG</t>
   </si>
 </sst>
 </file>
@@ -92,8 +95,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,7 +117,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -282,6 +285,29 @@
                   <c:y val="0.18632932511343059"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>18.3 t</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{67BF2F15-D5D6-4772-891C-566B80F2D4A7}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -294,6 +320,8 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -305,6 +333,29 @@
                   <c:y val="4.1656323967256034E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>17.1 t</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{884E831E-28E3-40F3-B366-E73509603878}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -317,6 +368,8 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -328,6 +381,29 @@
                   <c:y val="-9.4590146515923235E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>10.7 t</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{4F96C015-326D-4AC3-80CE-8813C6789919}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -340,6 +416,8 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -351,6 +429,29 @@
                   <c:y val="-0.16788360111316836"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>72.9 t</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{AC1A609D-A224-44F6-B7C0-E39515BE6587}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -363,10 +464,12 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -451,7 +554,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$5:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>18318</c:v>
@@ -569,7 +672,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -730,13 +833,27 @@
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.5648990149222633E-3"/>
-                  <c:y val="-0.23251267392945746"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>$ 54.9k
+</a:t>
+                    </a:r>
+                    <a:fld id="{299B0343-F277-4B55-82D1-742973193038}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -749,10 +866,134 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>$ 171.2k
+</a:t>
+                    </a:r>
+                    <a:fld id="{55032B0C-1C70-4188-B0FE-2F5AE9C34CC5}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5648990149222633E-3"/>
+                  <c:y val="-0.23251267392945746"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>$ 861.2k
+</a:t>
+                    </a:r>
+                    <a:fld id="{5879BFBD-9663-457D-B532-17C7386D4C47}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>$ 218.9k
+</a:t>
+                    </a:r>
+                    <a:fld id="{EF756712-76D7-4D04-B1AD-1D37DAAC5C3B}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2106,16 +2347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17033</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>26893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2140,7 +2381,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2426,79 +2667,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C20"/>
+  <dimension ref="A4:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>18318</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>54956</v>
       </c>
+      <c r="T5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>17126</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>171260</v>
       </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>10765</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>861231</v>
       </c>
+      <c r="T7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>72986</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>218958</v>
       </c>
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f>SUM(B5:B8)</f>
         <v>119195</v>
       </c>
@@ -2507,22 +2760,22 @@
         <v>1567686</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2552,7 +2805,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
